--- a/src/main/resources/157-black-shop/black-shop-nacos_attribute.xlsx
+++ b/src/main/resources/157-black-shop/black-shop-nacos_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="147">
   <si>
     <t>类名</t>
   </si>
@@ -414,7 +414,10 @@
     <t>com.alibaba.nacos.console.controller.NamespaceController</t>
   </si>
   <si>
-    <t>createNamespace(javax.servlet.http.HttpServletRequest)</t>
+    <t>createNamespace(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String</t>
   </si>
   <si>
     <t>editNamespace(java.lang.String,java.lang.String,java.lang.String)</t>
@@ -423,13 +426,19 @@
     <t>java.lang.String,java.lang.String,java.lang.String</t>
   </si>
   <si>
-    <t>getNamespace(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>deleteConfig(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>getNamespaces(javax.servlet.http.HttpServletRequest)</t>
+    <t>getNamespace(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String</t>
+  </si>
+  <si>
+    <t>deleteConfig(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String)</t>
+  </si>
+  <si>
+    <t>getNamespaces(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse</t>
   </si>
   <si>
     <t>com.alibaba.nacos.config.server.model.RestResult</t>
@@ -438,10 +447,10 @@
     <t>com.alibaba.nacos.console.controller.AuthController</t>
   </si>
   <si>
-    <t>login(javax.servlet.http.HttpServletResponse)</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletResponse</t>
+    <t>login(java.lang.String,java.lang.String,javax.servlet.http.HttpServletResponse)</t>
+  </si>
+  <si>
+    <t>java.lang.String,java.lang.String,javax.servlet.http.HttpServletResponse</t>
   </si>
   <si>
     <t>updatePassword(java.lang.String,java.lang.String)</t>
@@ -1825,7 +1834,7 @@
         <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
         <v>127</v>
@@ -1839,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
         <v>127</v>
@@ -1856,10 +1865,10 @@
         <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
         <v>127</v>
@@ -1873,10 +1882,10 @@
         <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
         <v>127</v>
@@ -1890,41 +1899,41 @@
         <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
         <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1933,7 +1942,7 @@
         <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
